--- a/src/test/resources/ExcelData/dummysheet.xlsx
+++ b/src/test/resources/ExcelData/dummysheet.xlsx
@@ -25,20 +25,20 @@
     <t>expectedmsg</t>
   </si>
   <si>
-    <t>sangee109</t>
-  </si>
-  <si>
-    <t>Nithila-312</t>
-  </si>
-  <si>
-    <t>success</t>
+    <t>reva109</t>
+  </si>
+  <si>
+    <t>nithi312</t>
+  </si>
+  <si>
+    <t>New Account Created. You are logged in as reva109</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -51,11 +51,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <color rgb="FF2A00FF"/>
-      <name val="&quot;Courier New&quot;"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -68,6 +75,12 @@
         <bgColor rgb="FFE8F2FE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border/>
@@ -75,7 +88,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -83,6 +96,9 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -325,7 +341,7 @@
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
